--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_213.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_213.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,548 +488,622 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2053475935828877</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.605, 13.84)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:26.130000', '0:00:30.620000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['Eb', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.8, 10.54)]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:58.620000', '0:01:05.560000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1973684210526316</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2307692307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'C', 'D', 'G']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(59.012938, 67.274742)]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(38.793167, 51.657021)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.860000', '0:00:24.540000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1154771451483561</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1369047619047619</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'A', 'E']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(38.261247, 43.090997)]</t>
+          <t>[['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.440395, 8.504874)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_87</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2019230769230769</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88)]</t>
+          <t>[['F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:05.900000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(122.78, 137.555)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(138.02, 143.32)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2965116279069767</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.014, 24.195)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(55.68, 66.1)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1168831168831169</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(23.4, 31.32)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(156.152, 159.022)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06474358974358974</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4821428571428572</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>[['D', 'G', 'C'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.99288, 42.009932)]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.46, 14.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:29.739000', '0:01:44.707000'), ('0:00:00.279000', '0:00:16.531000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1138310893512852</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'A/3'], ['C:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5882352941176471</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D'], ['C', 'D', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(44.656, 50.926), (12.446, 16.277)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (55.151295, 60.155195)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(86.26, 92.7), (118.18, 123.04)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(97.64, 105.58), (17.78, 25.4)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -1033,76 +1112,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.24375</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(74.879, 85.949)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1319285387081997</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G', 'G', 'G', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.22, 25.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(176.81, 184.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
